--- a/Design&Spec/Diagram.xlsx
+++ b/Design&Spec/Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSD-assignment\Design&amp;Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D710A-9D2E-4FD0-9148-F6E3877D9DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B76D1-DE2F-44BE-B30A-46E818492BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="All" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Session Service</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +89,6 @@
   </si>
   <si>
     <t>s_manufacturer</t>
-  </si>
-  <si>
-    <t>Auth Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Angular Web
@@ -109,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mart Query Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Seller Management System</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +117,25 @@
   </si>
   <si>
     <t>Session Contorl Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth Service
+10048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Service
+10049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mart Query Service
+10050</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,6 +369,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -367,78 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,6 +1024,223 @@
               <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1D522C-4EAC-4D17-95DC-7407B3651BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3419475" y="1333500"/>
+          <a:ext cx="1485901" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17376901-A062-4BA3-908E-A277C6CD46CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="4200525"/>
+          <a:ext cx="4981575" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123E4A4A-23A2-431E-93EE-4B5BF9C5715C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="4191000"/>
+          <a:ext cx="6696075" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3D126F-2031-4155-AC7C-F0FEC54FCC0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="4200525"/>
+          <a:ext cx="1495425" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1327,394 +1554,408 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.625" style="1"/>
+    <col min="1" max="1" width="5.625" style="1"/>
+    <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="22" width="7.625" style="1" customWidth="1"/>
     <col min="23" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="B1" s="1">
+        <v>4200</v>
+      </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="C2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="20"/>
-      <c r="U2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="30"/>
+      <c r="A2" s="23"/>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="11"/>
+      <c r="U2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32"/>
+      <c r="A3" s="23"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="13"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="U5" s="19" t="s">
+      <c r="A5" s="23"/>
+      <c r="U5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="20"/>
+      <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="23"/>
+      <c r="C6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="11"/>
+      <c r="F6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="11"/>
+      <c r="I6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="L6" s="19" t="s">
+      <c r="J6" s="11"/>
+      <c r="L6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="O6" s="19" t="s">
+      <c r="M6" s="11"/>
+      <c r="O6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="R6" s="19" t="s">
+      <c r="P6" s="11"/>
+      <c r="R6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="22"/>
+      <c r="S6" s="11"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="13"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="23"/>
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>24</v>
+      <c r="A10" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="A11" s="25"/>
+      <c r="C11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="A12" s="25"/>
+      <c r="C12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="C13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="A13" s="25"/>
+      <c r="C13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="A14" s="25"/>
+      <c r="C14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="S14" s="31"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="A15" s="25"/>
+      <c r="C15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="A16" s="25"/>
+      <c r="C16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="S17" s="7"/>
+      <c r="A17" s="25"/>
+      <c r="C17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="S18" s="7"/>
+      <c r="A18" s="25"/>
+      <c r="C18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="S18" s="31"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="S19" s="7"/>
+      <c r="A19" s="25"/>
+      <c r="C19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="S20" s="7"/>
+      <c r="A20" s="25"/>
+      <c r="C20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="S20" s="31"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="S21" s="7"/>
+      <c r="A21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="A22" s="25"/>
+      <c r="C22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="26" t="s">
         <v>9</v>
       </c>
+      <c r="B25" s="1">
+        <v>10047</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="27"/>
+      <c r="C26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="15"/>
+      <c r="F26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="I26" s="9" t="s">
+      <c r="G26" s="15"/>
+      <c r="I26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="L26" s="9" t="s">
+      <c r="J26" s="15"/>
+      <c r="L26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="10"/>
-      <c r="O26" s="9" t="s">
+      <c r="M26" s="15"/>
+      <c r="O26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="10"/>
-      <c r="R26" s="9" t="s">
+      <c r="P26" s="15"/>
+      <c r="R26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="10"/>
+      <c r="S26" s="15"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="12"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="12"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="12"/>
+      <c r="A27" s="27"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="17"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="17"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="D29" s="9" t="s">
+      <c r="A29" s="27"/>
+      <c r="D29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="15"/>
+      <c r="J29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="12"/>
+      <c r="A30" s="27"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="17"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="L6:M7"/>
+  <mergeCells count="29">
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="M11:M22"/>
+    <mergeCell ref="S11:S22"/>
+    <mergeCell ref="Q11:Q22"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="R26:S27"/>
     <mergeCell ref="I26:J27"/>
     <mergeCell ref="O6:P7"/>
     <mergeCell ref="R6:S7"/>
@@ -1731,12 +1972,12 @@
     <mergeCell ref="O11:O22"/>
     <mergeCell ref="I11:I22"/>
     <mergeCell ref="K11:K22"/>
-    <mergeCell ref="M11:M22"/>
-    <mergeCell ref="S11:S22"/>
-    <mergeCell ref="Q11:Q22"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="L6:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design&Spec/Diagram.xlsx
+++ b/Design&Spec/Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSD-assignment\Design&amp;Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B76D1-DE2F-44BE-B30A-46E818492BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC69C934-D887-4E5B-95EB-4B4C7F91DEF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3630" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Session Service</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>Account Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Direct Message Service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,22 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cart Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seller Management System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sales Report Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +116,35 @@
   <si>
     <t>Mart Query Service
 10050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cart Service
+10051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Service
+10052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct Message Service
+10053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Service
+10054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seller Center  Service
+10055</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +186,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,24 +377,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,17 +417,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,15 +456,20 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1135,8 +1155,20 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1188,8 +1220,20 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1236,6 +1280,789 @@
         <a:xfrm>
           <a:off x="3429000" y="4200525"/>
           <a:ext cx="1495425" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542927</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC22891A-BF5B-40EE-8EC3-DF1B30015526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4648200" y="1333500"/>
+          <a:ext cx="257177" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDAB9D7-CD57-43DE-81C5-63003D362DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4067175" y="4200525"/>
+          <a:ext cx="561975" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent3">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8215DE-588F-4829-B180-47742C1FD804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="4191000"/>
+          <a:ext cx="1114425" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D5F2F2-FDCE-466E-8266-610BFDE5A47D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="4191000"/>
+          <a:ext cx="904875" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent3">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BC400A-AF68-4DC4-AF64-BBBA8594080C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="4200525"/>
+          <a:ext cx="895350" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28578</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F892AB-AB72-4D89-AB65-E5E6E949C91D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5772150" y="1343025"/>
+          <a:ext cx="2686053" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADE0D5B-4CC8-44D0-8229-05D17E3E0A84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4924425" y="4191000"/>
+          <a:ext cx="847725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132BD802-8F44-4303-ABDD-F1E3A5E10005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677025" y="1323975"/>
+          <a:ext cx="304800" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD17EDAF-DAAC-470D-95ED-92B0E53E568F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8115300" y="1333500"/>
+          <a:ext cx="323851" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B64FA03-513F-4D41-ABC5-332EF9BAEC57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6638925" y="4200525"/>
+          <a:ext cx="1504951" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{527BEDF2-D545-43A1-A1E7-0EC50D02B705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5429250" y="4200525"/>
+          <a:ext cx="2714626" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026F9239-16C7-4CC0-B084-3BB2E00A19B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9296401" y="1343025"/>
+          <a:ext cx="904874" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFB2D31-1DCB-44D6-BA45-E56767361711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5057775" y="4200525"/>
+          <a:ext cx="4210050" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4317FBEB-5D00-4044-9F14-CC8F454EF10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286875" y="4200525"/>
+          <a:ext cx="819150" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1554,7 +2381,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +2394,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1">
         <v>4200</v>
@@ -1575,8 +2402,8 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
+      <c r="C2" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -1593,11 +2420,11 @@
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="11"/>
-      <c r="U2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="7"/>
+      <c r="S2" s="14"/>
+      <c r="U2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="30"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -1618,12 +2445,12 @@
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="21"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="C4" s="12"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -1639,58 +2466,85 @@
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="13"/>
+      <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="U5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="11"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35"/>
+      <c r="U5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="I6" s="10" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="L6" s="10" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="R6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="11"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="13"/>
+      <c r="S6" s="14"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
@@ -1700,170 +2554,156 @@
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="30" t="s">
+      <c r="O11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>21</v>
+      <c r="Q11" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
-      <c r="C12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="S12" s="31"/>
+      <c r="C12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
-      <c r="C13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="S13" s="31"/>
+      <c r="C13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="C14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="S14" s="31"/>
+      <c r="C14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
-      <c r="C15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="S15" s="31"/>
+      <c r="C15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
-      <c r="C16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="S16" s="31"/>
+      <c r="C16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
-      <c r="C17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="S17" s="31"/>
+      <c r="C17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
-      <c r="C18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="S18" s="31"/>
+      <c r="C18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
-      <c r="C19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="S19" s="31"/>
+      <c r="C19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
-      <c r="C20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="S20" s="31"/>
+      <c r="C20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="S21" s="31"/>
+      <c r="C21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
-      <c r="C22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="S22" s="32"/>
+      <c r="C22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
@@ -1873,7 +2713,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1">
         <v>10047</v>
@@ -1881,87 +2721,86 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
-      <c r="C26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="F26" s="14" t="s">
+      <c r="C26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="I26" s="14" t="s">
+      <c r="D26" s="7"/>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="I26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="L26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="L26" s="14" t="s">
+      <c r="M26" s="7"/>
+      <c r="O26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="O26" s="14" t="s">
+      <c r="P26" s="7"/>
+      <c r="R26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="15"/>
-      <c r="R26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="15"/>
+      <c r="S26" s="7"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="17"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="17"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="17"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="9"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="9"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
-      <c r="D29" s="14" t="s">
-        <v>12</v>
+      <c r="D29" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="15"/>
-      <c r="J29" s="14" t="s">
+      <c r="F29" s="7"/>
+      <c r="H29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="N29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="15"/>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
-      <c r="D30" s="16"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="17"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
+      <c r="F30" s="9"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="M11:M22"/>
-    <mergeCell ref="S11:S22"/>
-    <mergeCell ref="Q11:Q22"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="R26:S27"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="C2:S4"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="A10:A23"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="L6:M7"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="C26:D27"/>
     <mergeCell ref="F26:G27"/>
@@ -1969,15 +2808,22 @@
     <mergeCell ref="C11:C22"/>
     <mergeCell ref="E11:E22"/>
     <mergeCell ref="G11:G22"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="C2:S4"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="A10:A23"/>
     <mergeCell ref="O11:O22"/>
     <mergeCell ref="I11:I22"/>
     <mergeCell ref="K11:K22"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H29:I30"/>
+    <mergeCell ref="M11:M22"/>
+    <mergeCell ref="Q11:Q22"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="N29:O30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design&Spec/Diagram.xlsx
+++ b/Design&Spec/Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSD-assignment\Design&amp;Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC69C934-D887-4E5B-95EB-4B4C7F91DEF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18327A09-AD03-4103-AD00-0452D825006A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3630" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="1560" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -2381,7 +2381,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
